--- a/initial_data.xlsx
+++ b/initial_data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="620" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="newport" sheetId="1" r:id="rId1"/>
+    <sheet name="configuration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Index</t>
   </si>
@@ -51,13 +52,142 @@
     <t>is_available</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>pulish_date</t>
+  </si>
+  <si>
+    <t>apartment_type</t>
+  </si>
+  <si>
+    <t>aparment_type</t>
+  </si>
+  <si>
+    <t>GENDER_CHOICES</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>girl only</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>boy only</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>boy/girl</t>
+  </si>
+  <si>
+    <t>ROOMTYPE_CHOICES</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>bedroom_1</t>
+  </si>
+  <si>
+    <t>master bedroom</t>
+  </si>
+  <si>
+    <t>bedroom_2</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>bedroom_3</t>
+  </si>
+  <si>
+    <t>small bedroom</t>
+  </si>
+  <si>
+    <t>BUILDINGNAME_CHOICES</t>
+  </si>
+  <si>
+    <t>monaco</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>avelon</t>
+  </si>
+  <si>
+    <t>Avelon Cove</t>
+  </si>
+  <si>
+    <t>mabella</t>
+  </si>
+  <si>
+    <t>Mabella</t>
+  </si>
+  <si>
+    <t>studio</t>
+  </si>
+  <si>
+    <t>1bed1bath</t>
+  </si>
+  <si>
+    <t>2bed1bath</t>
+  </si>
+  <si>
+    <t>2bed2bath</t>
+  </si>
+  <si>
+    <t>3bed1bath</t>
+  </si>
+  <si>
+    <t>4bed1bath</t>
+  </si>
+  <si>
+    <t>4bed2bath</t>
+  </si>
+  <si>
+    <t>3bed2bath</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>pacific</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Lease_term</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>long/short</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -93,8 +223,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,15 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,34 +581,345 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>1200</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
